--- a/Excel/Ch. 12. Excel - Scatter Plot - Linear-Log Scales.xlsx
+++ b/Excel/Ch. 12. Excel - Scatter Plot - Linear-Log Scales.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17030"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="17127"/>
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Costas\Documents\COSTAS - BIBLIO - APER - ENGLISH\BOOK\EXCEL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Costas\Documents\COSTAS - BIBLIO - APER - ENGLISH\BOOK\- - Final for Springer\3. Programs\EXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -39,15 +39,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>x</t>
   </si>
   <si>
     <t>y</t>
-  </si>
-  <si>
-    <t>In Sheet1 the scatter plot is presented</t>
   </si>
   <si>
     <r>
@@ -118,15 +115,6 @@
     <t>the X-Y Scatter window</t>
   </si>
   <si>
-    <t>In Sheet2 the plot is shown with a line given by a</t>
-  </si>
-  <si>
-    <t xml:space="preserve">polynomial of the 3rd degree, with two linear </t>
-  </si>
-  <si>
-    <t>scales and with one or two logarithmic scales</t>
-  </si>
-  <si>
     <t>To change any element of the graph, double-click</t>
   </si>
   <si>
@@ -136,19 +124,10 @@
     <t>choices available for the particular element</t>
   </si>
   <si>
-    <t>To fit a curve to the points, move the cursor to the</t>
+    <t>Scatter Plot - Linear-Log Scales</t>
   </si>
   <si>
-    <t>top right corner and click. Click on the cross key and</t>
-  </si>
-  <si>
-    <t xml:space="preserve">select Trend Line More Options. Select the </t>
-  </si>
-  <si>
-    <t>required line to be fitted.</t>
-  </si>
-  <si>
-    <t>Scatter Plot - Linear-Log Scales</t>
+    <t>The scatter plot is presented</t>
   </si>
 </sst>
 </file>
@@ -361,20 +340,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2214,7 +2193,7 @@
   <dimension ref="A1:X31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+      <selection activeCell="J27" sqref="J27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2255,10 +2234,10 @@
       <c r="B2" s="14"/>
       <c r="C2" s="14"/>
       <c r="D2" s="16"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
+      <c r="E2" s="27"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="27"/>
+      <c r="H2" s="27"/>
       <c r="I2" s="17"/>
     </row>
     <row r="3" spans="1:17" ht="15.75" x14ac:dyDescent="0.25">
@@ -2270,12 +2249,12 @@
       </c>
       <c r="C3" s="15"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
+      <c r="E3" s="30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3" s="29"/>
+      <c r="G3" s="29"/>
+      <c r="H3" s="29"/>
       <c r="I3" s="19"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
@@ -2287,10 +2266,10 @@
       </c>
       <c r="C4" s="15"/>
       <c r="D4" s="18"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="28"/>
+      <c r="E4" s="29"/>
+      <c r="F4" s="29"/>
+      <c r="G4" s="29"/>
+      <c r="H4" s="29"/>
       <c r="I4" s="19"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
@@ -2302,12 +2281,12 @@
       </c>
       <c r="C5" s="15"/>
       <c r="D5" s="18"/>
-      <c r="E5" s="27" t="s">
-        <v>3</v>
-      </c>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
+      <c r="E5" s="31" t="s">
+        <v>2</v>
+      </c>
+      <c r="F5" s="31"/>
+      <c r="G5" s="31"/>
+      <c r="H5" s="31"/>
       <c r="I5" s="19"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
@@ -2319,12 +2298,12 @@
       </c>
       <c r="C6" s="15"/>
       <c r="D6" s="18"/>
-      <c r="E6" s="27" t="s">
-        <v>4</v>
-      </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27"/>
+      <c r="E6" s="31" t="s">
+        <v>3</v>
+      </c>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
       <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
@@ -2336,10 +2315,10 @@
       </c>
       <c r="C7" s="15"/>
       <c r="D7" s="18"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
+      <c r="E7" s="29"/>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29"/>
+      <c r="H7" s="29"/>
       <c r="I7" s="19"/>
       <c r="M7" s="2"/>
       <c r="N7" s="2"/>
@@ -2355,12 +2334,12 @@
       </c>
       <c r="C8" s="15"/>
       <c r="D8" s="18"/>
-      <c r="E8" s="29" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" s="29"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="29"/>
+      <c r="E8" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
       <c r="I8" s="19"/>
       <c r="L8" s="4"/>
       <c r="M8" s="5"/>
@@ -2378,12 +2357,12 @@
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="18"/>
-      <c r="E9" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29"/>
+      <c r="E9" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
       <c r="I9" s="19"/>
       <c r="L9" s="4"/>
       <c r="M9" s="5"/>
@@ -2401,12 +2380,12 @@
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="18"/>
-      <c r="E10" s="29" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29"/>
+      <c r="E10" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
       <c r="I10" s="19"/>
       <c r="L10" s="4"/>
       <c r="M10" s="5"/>
@@ -2424,12 +2403,12 @@
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="18"/>
-      <c r="E11" s="29" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
+      <c r="E11" s="28" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
       <c r="I11" s="19"/>
       <c r="L11" s="4"/>
       <c r="M11" s="5"/>
@@ -2447,12 +2426,12 @@
       </c>
       <c r="C12" s="15"/>
       <c r="D12" s="18"/>
-      <c r="E12" s="29" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29"/>
+      <c r="E12" s="28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
       <c r="I12" s="19"/>
       <c r="M12" s="5"/>
       <c r="N12" s="3"/>
@@ -2469,10 +2448,10 @@
       </c>
       <c r="C13" s="15"/>
       <c r="D13" s="18"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
       <c r="I13" s="19"/>
       <c r="L13" s="4"/>
       <c r="P13" s="5"/>
@@ -2487,12 +2466,10 @@
       </c>
       <c r="C14" s="15"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="29" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
       <c r="I14" s="19"/>
       <c r="L14" s="4"/>
       <c r="P14" s="5"/>
@@ -2507,12 +2484,10 @@
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="18"/>
-      <c r="E15" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="F15" s="29"/>
-      <c r="G15" s="29"/>
-      <c r="H15" s="29"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
       <c r="I15" s="20"/>
       <c r="J15" s="12"/>
       <c r="K15" s="12"/>
@@ -2525,12 +2500,10 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D16" s="21"/>
-      <c r="E16" s="29" t="s">
-        <v>11</v>
-      </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
       <c r="I16" s="20"/>
       <c r="J16" s="12"/>
       <c r="K16" s="12"/>
@@ -2542,10 +2515,10 @@
     </row>
     <row r="17" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D17" s="21"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
       <c r="I17" s="20"/>
       <c r="J17" s="12"/>
       <c r="K17" s="12"/>
@@ -2557,12 +2530,12 @@
     </row>
     <row r="18" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D18" s="21"/>
-      <c r="E18" s="27" t="s">
-        <v>12</v>
-      </c>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
+      <c r="E18" s="31" t="s">
+        <v>8</v>
+      </c>
+      <c r="F18" s="31"/>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
       <c r="I18" s="20"/>
       <c r="J18" s="12"/>
       <c r="K18" s="12"/>
@@ -2575,12 +2548,12 @@
     </row>
     <row r="19" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D19" s="21"/>
-      <c r="E19" s="27" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
+      <c r="E19" s="31" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="31"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
       <c r="I19" s="20"/>
       <c r="J19" s="12"/>
       <c r="K19" s="12"/>
@@ -2593,12 +2566,12 @@
     </row>
     <row r="20" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D20" s="21"/>
-      <c r="E20" s="27" t="s">
-        <v>14</v>
-      </c>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
+      <c r="E20" s="31" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="31"/>
+      <c r="G20" s="31"/>
+      <c r="H20" s="31"/>
       <c r="I20" s="20"/>
       <c r="J20" s="12"/>
       <c r="K20" s="12"/>
@@ -2611,10 +2584,10 @@
     </row>
     <row r="21" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D21" s="21"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
+      <c r="E21" s="29"/>
+      <c r="F21" s="29"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="29"/>
       <c r="I21" s="20"/>
       <c r="J21" s="12"/>
       <c r="K21" s="12"/>
@@ -2627,12 +2600,10 @@
     </row>
     <row r="22" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D22" s="22"/>
-      <c r="E22" s="29" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="29"/>
-      <c r="G22" s="29"/>
-      <c r="H22" s="29"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
       <c r="I22" s="23"/>
       <c r="J22" s="12"/>
       <c r="K22" s="12"/>
@@ -2645,12 +2616,10 @@
     </row>
     <row r="23" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D23" s="24"/>
-      <c r="E23" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="29"/>
-      <c r="G23" s="29"/>
-      <c r="H23" s="29"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
       <c r="I23" s="20"/>
       <c r="J23" s="12"/>
       <c r="K23" s="12"/>
@@ -2663,12 +2632,10 @@
     </row>
     <row r="24" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D24" s="24"/>
-      <c r="E24" s="29" t="s">
-        <v>17</v>
-      </c>
-      <c r="F24" s="29"/>
-      <c r="G24" s="29"/>
-      <c r="H24" s="29"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
       <c r="I24" s="20"/>
       <c r="J24" s="12"/>
       <c r="K24" s="12"/>
@@ -2681,12 +2648,10 @@
     </row>
     <row r="25" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D25" s="24"/>
-      <c r="E25" s="29" t="s">
-        <v>18</v>
-      </c>
-      <c r="F25" s="29"/>
-      <c r="G25" s="29"/>
-      <c r="H25" s="29"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
       <c r="I25" s="20"/>
       <c r="J25" s="12"/>
       <c r="K25" s="12"/>
@@ -2699,10 +2664,10 @@
     </row>
     <row r="26" spans="4:24" x14ac:dyDescent="0.25">
       <c r="D26" s="24"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="H26" s="29"/>
+      <c r="E26" s="28"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="28"/>
+      <c r="H26" s="28"/>
       <c r="I26" s="20"/>
       <c r="J26" s="12"/>
       <c r="K26" s="12"/>
@@ -2715,10 +2680,10 @@
     </row>
     <row r="27" spans="4:24" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="D27" s="25"/>
-      <c r="E27" s="30"/>
-      <c r="F27" s="30"/>
-      <c r="G27" s="30"/>
-      <c r="H27" s="30"/>
+      <c r="E27" s="32"/>
+      <c r="F27" s="32"/>
+      <c r="G27" s="32"/>
+      <c r="H27" s="32"/>
       <c r="I27" s="26"/>
       <c r="J27" s="12"/>
       <c r="K27" s="12"/>
@@ -2795,6 +2760,16 @@
     </row>
   </sheetData>
   <mergeCells count="26">
+    <mergeCell ref="E19:H19"/>
+    <mergeCell ref="E20:H20"/>
+    <mergeCell ref="E21:H21"/>
+    <mergeCell ref="E22:H22"/>
+    <mergeCell ref="E27:H27"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E18:H18"/>
     <mergeCell ref="E2:H2"/>
     <mergeCell ref="E23:H23"/>
     <mergeCell ref="E24:H24"/>
@@ -2811,16 +2786,6 @@
     <mergeCell ref="E9:H9"/>
     <mergeCell ref="E10:H10"/>
     <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E18:H18"/>
-    <mergeCell ref="E19:H19"/>
-    <mergeCell ref="E20:H20"/>
-    <mergeCell ref="E21:H21"/>
-    <mergeCell ref="E22:H22"/>
-    <mergeCell ref="E27:H27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="60" orientation="landscape" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
